--- a/academias/Física - Estadisticos 20242.xlsx
+++ b/academias/Física - Estadisticos 20242.xlsx
@@ -864,25 +864,25 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H2" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -899,25 +899,25 @@
         <v>17</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H3" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -934,25 +934,25 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F4">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="H4" s="1">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="J4">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -966,25 +966,25 @@
         <v>62</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F5">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>96.8</v>
       </c>
       <c r="H5" s="1">
-        <v>100</v>
+        <v>3.2</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J5">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1001,25 +1001,25 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F6">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>100</v>
+        <v>7.1</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="J6">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1036,25 +1036,25 @@
         <v>35</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F7">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>100</v>
+        <v>11.4</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="J7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1071,25 +1071,25 @@
         <v>31</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F8">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>67.7</v>
       </c>
       <c r="H8" s="1">
-        <v>100</v>
+        <v>32.3</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="J8">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1103,25 +1103,25 @@
         <v>94</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="F9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="H9" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="J9">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1132,25 +1132,25 @@
         <v>156</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="F10">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="H10" s="1">
-        <v>100</v>
+        <v>11.5</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J10">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1221,19 +1221,19 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H2" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>6.4</v>
+        <v>7.3</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1256,19 +1256,19 @@
         <v>17</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>70.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="H3" s="1">
-        <v>29.4</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>8</v>
       </c>
       <c r="I4" s="2">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1323,19 +1323,19 @@
         <v>62</v>
       </c>
       <c r="E5">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1">
-        <v>75.8</v>
+        <v>96.8</v>
       </c>
       <c r="H5" s="1">
-        <v>24.2</v>
+        <v>3.2</v>
       </c>
       <c r="I5" s="2">
-        <v>7.2</v>
+        <v>8.1</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1358,19 +1358,19 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1">
-        <v>96.40000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>3.6</v>
+        <v>7.1</v>
       </c>
       <c r="I6" s="2">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1393,19 +1393,19 @@
         <v>35</v>
       </c>
       <c r="E7">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7" s="1">
-        <v>94.3</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>5.7</v>
+        <v>11.4</v>
       </c>
       <c r="I7" s="2">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1428,19 +1428,19 @@
         <v>31</v>
       </c>
       <c r="E8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" s="1">
-        <v>64.5</v>
+        <v>67.7</v>
       </c>
       <c r="H8" s="1">
-        <v>35.5</v>
+        <v>32.3</v>
       </c>
       <c r="I8" s="2">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         <v>94</v>
       </c>
       <c r="E9">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G9" s="1">
-        <v>85.09999999999999</v>
+        <v>83</v>
       </c>
       <c r="H9" s="1">
-        <v>14.9</v>
+        <v>17</v>
       </c>
       <c r="I9" s="2">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1489,19 +1489,19 @@
         <v>156</v>
       </c>
       <c r="E10">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F10">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G10" s="1">
-        <v>81.40000000000001</v>
+        <v>88.5</v>
       </c>
       <c r="H10" s="1">
-        <v>18.6</v>
+        <v>11.5</v>
       </c>
       <c r="I10" s="2">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="J10">
         <v>0</v>
